--- a/AAII_Financials/Yearly/KNOS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KNOS_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/KNOS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KNOS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>KNOS</t>
   </si>
@@ -666,7 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -702,8 +703,8 @@
       <c r="I7" s="2">
         <v>38168</v>
       </c>
-      <c r="J7" s="2">
-        <v>37802</v>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -1445,8 +1446,8 @@
       <c r="I38" s="2">
         <v>38168</v>
       </c>
-      <c r="J38" s="2">
-        <v>37802</v>
+      <c r="J38" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K38" s="2"/>
     </row>
@@ -1498,8 +1499,8 @@
       <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>600</v>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1552,8 +1553,8 @@
       <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1606,8 +1607,8 @@
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1633,8 +1634,8 @@
       <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>700</v>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1687,8 +1688,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1714,8 +1715,8 @@
       <c r="I49" s="3">
         <v>2300</v>
       </c>
-      <c r="J49" s="3">
-        <v>2500</v>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1849,8 +1850,8 @@
       <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
-        <v>3200</v>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1902,8 +1903,8 @@
       <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>1400</v>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1929,8 +1930,8 @@
       <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
-        <v>200</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1956,8 +1957,8 @@
       <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>300</v>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1983,8 +1984,8 @@
       <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
-        <v>1900</v>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -2011,7 +2012,7 @@
         <v>3000</v>
       </c>
       <c r="J61" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2145,8 +2146,8 @@
       <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
-        <v>4500</v>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2293,8 +2294,8 @@
       <c r="I72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3">
-        <v>-17500</v>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2401,8 +2402,8 @@
       <c r="I76" s="3">
         <v>-1400</v>
       </c>
-      <c r="J76" s="3">
-        <v>-1200</v>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2460,8 +2461,8 @@
       <c r="I80" s="2">
         <v>38168</v>
       </c>
-      <c r="J80" s="2">
-        <v>37802</v>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K80" s="2"/>
     </row>
